--- a/src/assets/excel/INFORME_DIARIO_DE_EJECUTOR.xlsx
+++ b/src/assets/excel/INFORME_DIARIO_DE_EJECUTOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documents\GitHub\SIEFI\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB8379-ABED-4349-8CF0-232542DAC1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A7FC5-3B45-41D9-867B-CB6EEF77C5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,15 +365,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -414,6 +405,21 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,14 +470,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,22 +486,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -818,19 +824,19 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -893,12 +899,12 @@
       <c r="C10" s="1"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -936,140 +942,140 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="E18" s="27" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="E18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="E20" s="27" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="E20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3860,6 +3866,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="F10:K10"/>
     <mergeCell ref="A13:K13"/>
@@ -3869,13 +3882,6 @@
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:K16"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.27" top="0.39370078740157483" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
